--- a/apps/features/backlog/android/settings/protocol_settings.xlsx
+++ b/apps/features/backlog/android/settings/protocol_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\apps\features\backlog\android\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4583058C-7082-4BDD-99A9-0E703155C645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58BE85C-8106-4FB6-A0CE-B1F96E98FDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -259,195 +259,214 @@
     <t>check if can change the protocol while kill switch is on</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>TC_SYM_STP_023</t>
+  </si>
+  <si>
+    <t>check if the protocol is changing while connected to any server</t>
+  </si>
+  <si>
+    <t>a message "disconnect the server" should be shown and protocol should not be changed</t>
+  </si>
+  <si>
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. check that the default protocol is selected.</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. change the protocol to a different one (from all protocol to protocol 1)
 7. reconnect the vpn</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. change the protocol to a different one (from protocol 1 to protocol 2)
 7. reconnect the vpn</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the server list for protocol all</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the server list for "protocol 1"</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the server list for "protocol 2"</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check if the dropdown is working properly or not</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the current protocol status after logout
     and again login</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. check the protocol status when changing the 
      protocol while connecting to server</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the presence of all protocol options (all protocols, protocol 1, protocol 2) in the dropdown</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check for changing protocol selection</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check when protocol change without connection</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check when Change the protocol and initiate a connection</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. change the protocol and check for feedback or confirmation messages</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to test connection speed with each protocol (All Protocols, Protocol 1, Protocol 2)</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the impact of different protocols on data usage</t>
   </si>
   <si>
-    <t xml:space="preserve">1. go to appstore and install symlexvpn in the device
+    <t xml:space="preserve">1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the security features of each protocol </t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check for changing the protocol while net is off</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the apps behaviour while connecting to 
 another server and changing the protocol</t>
   </si>
   <si>
-    <t xml:space="preserve">1. go to appstore and install symlexvpn in the device
+    <t xml:space="preserve">1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check the server connection time while changing the protocol </t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check if can change the protocol while net is off</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. select any protocol
 7. connect to server
 8. try to check if the back button and menu button is working properly by clicking it while connected to the server</t>
   </si>
   <si>
-    <t>1. go to appstore and install symlexvpn in the device
+    <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
 3. input password to the password field
 4. tap on login button
-5. navigate to the split tunneling settings
+5. navigate to the protocol settings
 6. try to check if can change the protocol while kill switch is on</t>
+  </si>
+  <si>
+    <t>1. go to playstore and install symlexvpn in the device
+2. open the installed symlexvpn application.
+3. input password to the password field
+4. tap on login button
+5. connect to any server
+6. navigate to the protocol settings
+7. try to change the protocol
+8. check if the protocol is changing while connected to any server</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1413,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G26" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G27" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="5"/>
@@ -1612,8 +1631,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1739,7 +1758,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -1781,7 +1800,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
@@ -1821,7 +1840,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -1861,7 +1880,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
@@ -1901,7 +1920,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>31</v>
@@ -1941,7 +1960,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -1981,7 +2000,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>35</v>
@@ -2021,7 +2040,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2061,7 +2080,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>39</v>
@@ -2101,7 +2120,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>41</v>
@@ -2141,7 +2160,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>43</v>
@@ -2181,7 +2200,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>45</v>
@@ -2221,7 +2240,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>47</v>
@@ -2261,7 +2280,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>49</v>
@@ -2301,7 +2320,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>51</v>
@@ -2341,7 +2360,7 @@
         <v>52</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>53</v>
@@ -2381,7 +2400,7 @@
         <v>54</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>55</v>
@@ -2421,7 +2440,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>57</v>
@@ -2461,7 +2480,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>57</v>
@@ -2501,7 +2520,7 @@
         <v>66</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>68</v>
@@ -2541,7 +2560,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>39</v>
@@ -2581,7 +2600,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>39</v>
@@ -2621,7 +2640,7 @@
         <v>75</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>39</v>
@@ -2650,14 +2669,26 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+    <row r="27" spans="1:26" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="7"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -29647,7 +29678,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F10 F12:F26" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F10 F12:F27" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>

--- a/apps/features/backlog/android/settings/protocol_settings.xlsx
+++ b/apps/features/backlog/android/settings/protocol_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\apps\features\backlog\android\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58BE85C-8106-4FB6-A0CE-B1F96E98FDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F528074-D955-41C3-A54F-67791E7481FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>TC_SYM_STP_008</t>
-  </si>
-  <si>
-    <t>TC_SYM_STP_009</t>
   </si>
   <si>
     <t>TC_SYM_STP_010</t>
@@ -138,10 +135,6 @@
 again login</t>
   </si>
   <si>
-    <t>check the protocol status when changing the 
-protocol while connecting to server</t>
-  </si>
-  <si>
     <t>should work properly</t>
   </si>
   <si>
@@ -152,9 +145,6 @@
   </si>
   <si>
     <t>check for changing protocol selection</t>
-  </si>
-  <si>
-    <t>selected protocol should change accordingly and the application adapts to the new protoco</t>
   </si>
   <si>
     <t>check when protocol change without connection</t>
@@ -189,14 +179,6 @@
     <t>these should align with expectations</t>
   </si>
   <si>
-    <t>check the security features of each protocol 
-(encryption, authentication).</t>
-  </si>
-  <si>
-    <t>each protocol should provide the expected level 
-of security</t>
-  </si>
-  <si>
     <t>check for changing the protocol while net is off</t>
   </si>
   <si>
@@ -228,10 +210,6 @@
     <t>TC_SYM_STP_018</t>
   </si>
   <si>
-    <t xml:space="preserve">check the server connection time while changing 
-the protocol </t>
-  </si>
-  <si>
     <t>TC_SYM_STP_019</t>
   </si>
   <si>
@@ -242,15 +220,6 @@
   </si>
   <si>
     <t>check if can change the protocol while net is off</t>
-  </si>
-  <si>
-    <t>TC_SYM_STP_021</t>
-  </si>
-  <si>
-    <t>check if the back button and menu button is working properly by clicking it while connected to the server</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>TC_SYM_STP_022</t>
@@ -268,9 +237,25 @@
     <t>a message "disconnect the server" should be shown and protocol should not be changed</t>
   </si>
   <si>
+    <t>selected protocol should change accordingly and the application adapts to the new protocol</t>
+  </si>
+  <si>
+    <t>check the DNS leak for each protocol</t>
+  </si>
+  <si>
+    <t>DNS should not leak and each protocol should provide the expected level of security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the server connection time after changing 
+the protocol </t>
+  </si>
+  <si>
+    <t>TC_SYM_STP_09</t>
+  </si>
+  <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. check that the default protocol is selected.</t>
@@ -278,7 +263,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. change the protocol to a different one (from all protocol to protocol 1)
@@ -287,7 +272,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. change the protocol to a different one (from protocol 1 to protocol 2)
@@ -296,7 +281,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to check the server list for protocol all</t>
@@ -304,7 +289,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to check the server list for "protocol 1"</t>
@@ -312,7 +297,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to check the server list for "protocol 2"</t>
@@ -320,7 +305,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to check if the dropdown is working properly or not</t>
@@ -328,7 +313,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to check the current protocol status after logout
@@ -337,16 +322,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
-4. tap on login button
-5. navigate to the protocol settings
-6. check the protocol status when changing the 
-     protocol while connecting to server</t>
-  </si>
-  <si>
-    <t>1. go to playstore and install symlexvpn in the device
-2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to check the presence of all protocol options (all protocols, protocol 1, protocol 2) in the dropdown</t>
@@ -354,7 +330,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to check for changing protocol selection</t>
@@ -362,7 +338,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to check when protocol change without connection</t>
@@ -370,7 +346,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to check when Change the protocol and initiate a connection</t>
@@ -378,7 +354,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. change the protocol and check for feedback or confirmation messages</t>
@@ -386,7 +362,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to test connection speed with each protocol (All Protocols, Protocol 1, Protocol 2)</t>
@@ -394,7 +370,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to check the impact of different protocols on data usage</t>
@@ -402,15 +378,15 @@
   <si>
     <t xml:space="preserve">1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
-6. try to check the security features of each protocol </t>
+6. try to check the DNS leak for each protocol </t>
   </si>
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to check for changing the protocol while net is off</t>
@@ -418,7 +394,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to check the apps behaviour while connecting to 
@@ -427,15 +403,15 @@
   <si>
     <t xml:space="preserve">1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
-6. try to check the server connection time while changing the protocol </t>
+6. try to check the server connection time after changing the protocol </t>
   </si>
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to check if can change the protocol while net is off</t>
@@ -443,17 +419,7 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
-4. tap on login button
-5. navigate to the protocol settings
-6. select any protocol
-7. connect to server
-8. try to check if the back button and menu button is working properly by clicking it while connected to the server</t>
-  </si>
-  <si>
-    <t>1. go to playstore and install symlexvpn in the device
-2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. navigate to the protocol settings
 6. try to check if can change the protocol while kill switch is on</t>
@@ -461,12 +427,30 @@
   <si>
     <t>1. go to playstore and install symlexvpn in the device
 2. open the installed symlexvpn application.
-3. input password to the password field
+3. give proper credentials
 4. tap on login button
 5. connect to any server
 6. navigate to the protocol settings
 7. try to change the protocol
 8. check if the protocol is changing while connected to any server</t>
+  </si>
+  <si>
+    <t>TC_SYM_STP_024</t>
+  </si>
+  <si>
+    <t>check if protocol changing get saved for login with different pins</t>
+  </si>
+  <si>
+    <t>1. go to playstore and install symlexvpn in the device
+2. open the installed symlexvpn application.
+3. give proper credentials
+4. tap on login button
+5. connect to any server
+6. navigate to the protocol settings
+7. select a protocol, logout, login with another pin, check previous protocol gets save or not</t>
+  </si>
+  <si>
+    <t>should not save the previous protocol</t>
   </si>
 </sst>
 </file>
@@ -512,7 +496,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +513,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -634,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -669,6 +659,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1413,7 +1406,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G27" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G26" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="5"/>
@@ -1631,8 +1624,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1752,16 +1745,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
@@ -1794,16 +1787,16 @@
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>10</v>
@@ -1834,16 +1827,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
@@ -1874,16 +1867,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>10</v>
@@ -1914,16 +1907,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>10</v>
@@ -1954,16 +1947,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
@@ -1994,16 +1987,16 @@
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -2034,16 +2027,16 @@
         <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>10</v>
@@ -2071,16 +2064,16 @@
     </row>
     <row r="12" spans="1:26" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>39</v>
@@ -2111,19 +2104,19 @@
     </row>
     <row r="13" spans="1:26" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>10</v>
@@ -2154,16 +2147,16 @@
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>10</v>
@@ -2191,19 +2184,19 @@
     </row>
     <row r="15" spans="1:26" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>10</v>
@@ -2231,22 +2224,22 @@
     </row>
     <row r="16" spans="1:26" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="1"/>
@@ -2271,22 +2264,22 @@
     </row>
     <row r="17" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="1"/>
@@ -2311,22 +2304,22 @@
     </row>
     <row r="18" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="1"/>
@@ -2351,22 +2344,22 @@
     </row>
     <row r="19" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="1"/>
@@ -2391,22 +2384,22 @@
     </row>
     <row r="20" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="1"/>
@@ -2429,21 +2422,21 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>10</v>
@@ -2471,19 +2464,19 @@
     </row>
     <row r="22" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>10</v>
@@ -2511,19 +2504,19 @@
     </row>
     <row r="23" spans="1:26" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>10</v>
@@ -2551,19 +2544,19 @@
     </row>
     <row r="24" spans="1:26" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>10</v>
@@ -2589,24 +2582,24 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>71</v>
+    <row r="25" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>24</v>
+      <c r="B25" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="1"/>
@@ -2629,25 +2622,23 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>74</v>
+    <row r="26" spans="1:26" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>97</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>24</v>
+      <c r="B26" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2670,25 +2661,13 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="7"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -29618,13 +29597,6 @@
       <c r="Z988" s="1"/>
     </row>
     <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A989" s="5"/>
-      <c r="B989" s="5"/>
-      <c r="C989" s="5"/>
-      <c r="D989" s="5"/>
-      <c r="E989" s="5"/>
-      <c r="F989" s="5"/>
-      <c r="G989" s="5"/>
       <c r="H989" s="1"/>
       <c r="I989" s="1"/>
       <c r="J989" s="1"/>
@@ -29646,13 +29618,6 @@
       <c r="Z989" s="1"/>
     </row>
     <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A990" s="5"/>
-      <c r="B990" s="5"/>
-      <c r="C990" s="5"/>
-      <c r="D990" s="5"/>
-      <c r="E990" s="5"/>
-      <c r="F990" s="5"/>
-      <c r="G990" s="5"/>
       <c r="H990" s="1"/>
       <c r="I990" s="1"/>
       <c r="J990" s="1"/>
@@ -29678,7 +29643,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F10 F12:F27" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F10 F12:F25" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
